--- a/biology/Origine et évolution du vivant/Liste_des_espèces_d'oiseaux_disparues/Liste_des_espèces_d'oiseaux_disparues.xlsx
+++ b/biology/Origine et évolution du vivant/Liste_des_espèces_d'oiseaux_disparues/Liste_des_espèces_d'oiseaux_disparues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1600, plus d'une centaine d'espèces d'oiseaux a disparu, alors que la vitesse d'extinction semble même augmenter. Hawaii constitue l'exemple le plus flagrant, où 30 % des espèces endémiques ont aujourd'hui disparu. D'autres régions ont été aussi sévèrement touchées, comme Guam, qui a vu disparaître 60 % de ses espèces en une trentaine d'années, principalement à cause des serpents importés.
 On recense aujourd'hui environ 10 000 espèces d'oiseaux, dont 1 186 en voie de disparition. Sauf pour 11 espèces, cette disparition est d'origine humaine.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Ansériformes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alopochen kervazoi — Ouette de La Réunion (Mascareignes 1674)
 Alopochen mauritianus — Ouette de Maurice (Mascareignes 1698)
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Caprimulgiformes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Siphonorhis americanus — Engoulevent de Jamaïque</t>
         </is>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Charadriiformes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Coenocorypha miratropica - Fidji
 Gallinago anthonyi - Porto Rico
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Ciconiiformes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Apteribis brevis et Apteribis glenos, des petits ibis incapables de voler des îles hawaiennes.
 Ixobrychus novaezelandiae — Blongios à dos noir (Australie et Nouvelle-Zélande 1900)
@@ -640,7 +660,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -658,7 +678,9 @@
           <t>Columbiformes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Alectroenas nitidissima — Founingo hollandais. Éteint au XIXe siècle.
 Alectroenas rodericana — Founingo de Rodrigues
@@ -692,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -710,7 +732,9 @@
           <t>Coraciiformes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Halcyon miyakoensis — Martin-chasseur de Miyaco. Il s'agissait d'une sous-espèce du martin-chasseur micronésien (Halycon cinnamomina).
 Upupa antaios — Huppe de Sainte-Hélène, (Sainte-Hélène, 1550)</t>
@@ -723,7 +747,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -741,7 +765,9 @@
           <t>Cuculiformes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Coua delalandei — Coua de Delalande (Madagascar)
 Nannococcyx psix — Coucou de Sainte-Hélène</t>
@@ -754,7 +780,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -772,7 +798,9 @@
           <t>Falconiformes</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Argentavis magnificens — Argentavis
 Harpagornis moorei — Aigle d'Haast. Un aigle géant (jusqu'à 2,6 m d'envergure) endémique à la Nouvelle-Zélande, éteint depuis 1400, à cause de la perte de son habitat et de ses proies consécutive à l'occupation humaine.
@@ -786,7 +814,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -804,7 +832,9 @@
           <t>Galliformes</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Coturnix gomerae
 Coturnix novaezelandiae — Caille de Nouvelle-Zélande (Nouvelle-Zélande, 1875)
@@ -821,7 +851,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -839,7 +869,9 @@
           <t>Gruiformes</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Aphanapteryx bonasia — Râle de Maurice
 Aphanapteryx leguati — Râle de Rodrigues
@@ -877,7 +909,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -895,7 +927,9 @@
           <t>Passeriformes</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Acrocephalus astrolabii
 Acrocephalus luscinius
@@ -969,7 +1003,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -987,7 +1021,9 @@
           <t>Pélécaniformes</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Pelecanus novaezealandiae — Pélican de Nouvelle-Zélande
 Phalacrocorax perspicillatus — Cormoran de Pallas (Kamtchatka, 1850-1860)</t>
@@ -1000,7 +1036,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1018,7 +1054,9 @@
           <t>Piciformes</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Campephilus imperialis — Pic impérial. Ce pic de 50 cm va très probablement disparaître prochainement (ouest du Mexique).
 Campephilus principalis — Pic à bec ivoire. La dernière observation confirmée date de 1987 à Cuba. L'observation d'un couple en Louisiane en 1999 a été infirmée. La cause de la disparition de cette espèce est sans doute la perte de son habitat.</t>
@@ -1031,7 +1069,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1049,7 +1087,9 @@
           <t>Podicipédiformes</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Podiceps andinus — Grèbe des Andes. Vu pour la dernière fois en Colombie en 1977.
 Podilymbus gigas — Grèbe de l'Atitlan. Vu pour la dernière fois au Guatemala en 1986, déclarée éteinte depuis 1994.
@@ -1063,7 +1103,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1081,7 +1121,9 @@
           <t>Procellariiformes</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Bulweria bifax — Pétrel bifax (Île Sainte-Hélène, éteint vers 1550)
 Oceanodroma macrodactyla — Océanite de Guadalupe
@@ -1095,7 +1137,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1113,7 +1155,9 @@
           <t>Psittaciformes</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Alexandrinus exsul - Île Maurice
 Amazona martinicana - Martinique
@@ -1141,7 +1185,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1159,7 +1203,9 @@
           <t>Sphenisciformes</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Waimanu (manchot préhistorique découvert en Nouvelle-Zélande)</t>
         </is>
@@ -1171,7 +1217,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1189,7 +1235,9 @@
           <t>Strigiformes</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Aegolius gradyi
 Athene cretensis
@@ -1210,7 +1258,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1228,7 +1276,9 @@
           <t>Struthioniformes</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Aepyornis maximus — Æpyornis
 Dinornithiformes — Moa.
@@ -1244,7 +1294,7 @@
 Pachyornis elephantopus
 Pachyornis mappini
 Ces grands oiseaux de Nouvelle-Zélande incapables de voler avaient sans doute déjà disparu quand les Européens y débarquèrent en 1642. L'extinction du moa et de son prédateur principal, l'Harpagornis serait due à l'arrivée des premiers Māori vers -1000. Les débarquements les plus anciens, c'est-à-dire entre 1830 et 1840 mentionnent des oiseaux qui auraient pu être les derniers des moas, mais ces observations n'ont jamais pu être confirmées. La Nouvelle-Zélande ne comptait quasiment aucun mammifères sur ses terres. Toute la chaîne alimentaire reposait sur les oiseaux, le moa étant le maillon le plus bas tandis que l'Harpagornis était au sommet de la chaîne. Il existait 10 espèces, dont le Dinornis robustus, l'Euryapteryx gravis et le Megalapteryx didinus.
-On a longtemps soupçonné les espèces de moa décrites sous les noms d'Euryapteryx curtus/E. exilis, d'E. huttonii/ E. crassus et de Pachyornis septentrionalis/P. mappini constituaient respectivement les mâles et femelles d'une même espèce. Cela a été confirmé par l'analyse d'ADN extrait d'os[1]. Encore plus intéressant, les trois espèces Dinornis, D. giganteus = robustus, D. novaezealandiae et D. struthioides se sont révélées être les mâles et les femelles de seulement deux espèces, une septentrionale (D. novaezealandiae), l'autre méridionale (D. robustus)[2]. Les femelles étaient plus grosses que les mâles, jusqu'à 150 % en taille et 280 % en poids. Ce phénomène de dimorphisme inverse est courant chez les ratites, et est le plus marqué chez les moas et les kiwis.
+On a longtemps soupçonné les espèces de moa décrites sous les noms d'Euryapteryx curtus/E. exilis, d'E. huttonii/ E. crassus et de Pachyornis septentrionalis/P. mappini constituaient respectivement les mâles et femelles d'une même espèce. Cela a été confirmé par l'analyse d'ADN extrait d'os. Encore plus intéressant, les trois espèces Dinornis, D. giganteus = robustus, D. novaezealandiae et D. struthioides se sont révélées être les mâles et les femelles de seulement deux espèces, une septentrionale (D. novaezealandiae), l'autre méridionale (D. robustus). Les femelles étaient plus grosses que les mâles, jusqu'à 150 % en taille et 280 % en poids. Ce phénomène de dimorphisme inverse est courant chez les ratites, et est le plus marqué chez les moas et les kiwis.
 Dromaius ater — Émeu noir (Australie 1850)
 Dromaius baudinianus — Émeu de Baudin (Australie 1827)</t>
         </is>
@@ -1256,7 +1306,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27oiseaux_disparues</t>
+          <t>Liste_des_espèces_d'oiseaux_disparues</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1274,7 +1324,9 @@
           <t>Trochiliformes</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Chlorostilbon bracei — Émeraude de Brace (Bahamas, 1900)
 Chlorostilbon elegans — Émeraude de Gould (Jamaïque et Bahamas, 1900)
